--- a/Assets/Resources/Additional/Excel/ItemDatas.xlsx
+++ b/Assets/Resources/Additional/Excel/ItemDatas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\Resources\Additional\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A383E03D-2D97-44B9-8579-1FB9E34195BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E36986-FE3B-4E32-A435-D679CDFC1D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2537,7 +2537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2547,7 +2547,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2558,9 +2558,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2928,14 +2925,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2947,7 +2944,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -2991,7 +2988,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>378</v>
       </c>
       <c r="D2" t="s">
@@ -3024,7 +3021,7 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>379</v>
       </c>
       <c r="D3" t="s">
@@ -3057,7 +3054,7 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>380</v>
       </c>
       <c r="D4" t="s">
@@ -3090,7 +3087,7 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>381</v>
       </c>
       <c r="D5" t="s">
@@ -3123,7 +3120,7 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>382</v>
       </c>
       <c r="D6" t="s">
@@ -3156,7 +3153,7 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>383</v>
       </c>
       <c r="D7" t="s">
@@ -3189,7 +3186,7 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>384</v>
       </c>
       <c r="D8" t="s">
@@ -3222,7 +3219,7 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>385</v>
       </c>
       <c r="D9" t="s">
@@ -3255,7 +3252,7 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>386</v>
       </c>
       <c r="D10" t="s">
@@ -3288,7 +3285,7 @@
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>390</v>
       </c>
       <c r="D11" t="s">
@@ -3321,7 +3318,7 @@
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>390</v>
       </c>
       <c r="D12" t="s">
@@ -3354,7 +3351,7 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>390</v>
       </c>
       <c r="D13" t="s">
@@ -3387,7 +3384,7 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>390</v>
       </c>
       <c r="D14" t="s">
@@ -3420,7 +3417,7 @@
       <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>390</v>
       </c>
       <c r="D15" t="s">
@@ -3453,7 +3450,7 @@
       <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>390</v>
       </c>
       <c r="D16" t="s">
@@ -3486,7 +3483,7 @@
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>390</v>
       </c>
       <c r="D17" t="s">
@@ -3519,7 +3516,7 @@
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>390</v>
       </c>
       <c r="D18" t="s">
@@ -3552,7 +3549,7 @@
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" t="s">
         <v>390</v>
       </c>
       <c r="D19" t="s">
@@ -3585,7 +3582,7 @@
       <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>390</v>
       </c>
       <c r="D20" t="s">
@@ -3618,7 +3615,7 @@
       <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" t="s">
         <v>390</v>
       </c>
       <c r="D21" t="s">
@@ -3651,7 +3648,7 @@
       <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
         <v>390</v>
       </c>
       <c r="D22" t="s">
@@ -3684,7 +3681,7 @@
       <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>390</v>
       </c>
       <c r="D23" t="s">
@@ -3717,7 +3714,7 @@
       <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" t="s">
         <v>390</v>
       </c>
       <c r="D24" t="s">
@@ -3750,7 +3747,7 @@
       <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" t="s">
         <v>390</v>
       </c>
       <c r="D25" t="s">
@@ -3783,7 +3780,7 @@
       <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" t="s">
         <v>387</v>
       </c>
       <c r="D26" t="s">
@@ -3816,7 +3813,7 @@
       <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" t="s">
         <v>388</v>
       </c>
       <c r="D27" t="s">
@@ -3849,7 +3846,7 @@
       <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" t="s">
         <v>389</v>
       </c>
       <c r="D28" t="s">
@@ -3882,7 +3879,7 @@
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" t="s">
         <v>391</v>
       </c>
       <c r="D29" t="s">
@@ -3915,7 +3912,7 @@
       <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" t="s">
         <v>392</v>
       </c>
       <c r="D30" t="s">
@@ -3948,7 +3945,7 @@
       <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" t="s">
         <v>393</v>
       </c>
       <c r="D31" t="s">
@@ -3981,7 +3978,7 @@
       <c r="B32" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" t="s">
         <v>394</v>
       </c>
       <c r="D32" t="s">
@@ -4014,7 +4011,7 @@
       <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" t="s">
         <v>390</v>
       </c>
       <c r="D33" t="s">
@@ -4047,7 +4044,7 @@
       <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" t="s">
         <v>395</v>
       </c>
       <c r="D34" t="s">
@@ -4080,7 +4077,7 @@
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" t="s">
         <v>396</v>
       </c>
       <c r="D35" t="s">
@@ -4113,7 +4110,7 @@
       <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" t="s">
         <v>397</v>
       </c>
       <c r="D36" t="s">
@@ -4146,7 +4143,7 @@
       <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" t="s">
         <v>390</v>
       </c>
       <c r="D37" t="s">
@@ -4179,7 +4176,7 @@
       <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" t="s">
         <v>390</v>
       </c>
       <c r="D38" t="s">
@@ -4212,7 +4209,7 @@
       <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" t="s">
         <v>390</v>
       </c>
       <c r="D39" t="s">
@@ -4245,7 +4242,7 @@
       <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" t="s">
         <v>390</v>
       </c>
       <c r="D40" t="s">
@@ -4278,7 +4275,7 @@
       <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" t="s">
         <v>398</v>
       </c>
       <c r="D41" t="s">
@@ -4311,7 +4308,7 @@
       <c r="B42" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" t="s">
         <v>400</v>
       </c>
       <c r="D42" t="s">
@@ -4344,7 +4341,7 @@
       <c r="B43" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" t="s">
         <v>399</v>
       </c>
       <c r="D43" t="s">
@@ -4377,7 +4374,7 @@
       <c r="B44" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" t="s">
         <v>401</v>
       </c>
       <c r="D44" t="s">
@@ -4410,7 +4407,7 @@
       <c r="B45" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" t="s">
         <v>402</v>
       </c>
       <c r="D45" t="s">
@@ -4443,7 +4440,7 @@
       <c r="B46" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" t="s">
         <v>403</v>
       </c>
       <c r="D46" t="s">
@@ -4476,7 +4473,7 @@
       <c r="B47" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" t="s">
         <v>404</v>
       </c>
       <c r="D47" t="s">
@@ -4509,7 +4506,7 @@
       <c r="B48" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" t="s">
         <v>390</v>
       </c>
       <c r="D48" t="s">
@@ -4542,7 +4539,7 @@
       <c r="B49" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" t="s">
         <v>390</v>
       </c>
       <c r="D49" t="s">
@@ -4575,7 +4572,7 @@
       <c r="B50" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" t="s">
         <v>390</v>
       </c>
       <c r="D50" t="s">
@@ -4608,7 +4605,7 @@
       <c r="B51" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" t="s">
         <v>390</v>
       </c>
       <c r="D51" t="s">
@@ -4641,7 +4638,7 @@
       <c r="B52" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>390</v>
       </c>
       <c r="D52" t="s">
@@ -4674,7 +4671,7 @@
       <c r="B53" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" t="s">
         <v>390</v>
       </c>
       <c r="D53" t="s">
@@ -4707,7 +4704,7 @@
       <c r="B54" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" t="s">
         <v>390</v>
       </c>
       <c r="D54" t="s">
@@ -4740,7 +4737,7 @@
       <c r="B55" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" t="s">
         <v>390</v>
       </c>
       <c r="D55" t="s">
@@ -4773,7 +4770,7 @@
       <c r="B56" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" t="s">
         <v>390</v>
       </c>
       <c r="D56" t="s">
@@ -4806,7 +4803,7 @@
       <c r="B57" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" t="s">
         <v>390</v>
       </c>
       <c r="D57" t="s">
@@ -4839,7 +4836,7 @@
       <c r="B58" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>491</v>
       </c>
       <c r="D58" t="s">
@@ -4872,7 +4869,7 @@
       <c r="B59" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>492</v>
       </c>
       <c r="D59" t="s">
@@ -4905,7 +4902,7 @@
       <c r="B60" t="s">
         <v>405</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" t="s">
         <v>406</v>
       </c>
       <c r="D60" t="s">
@@ -4938,7 +4935,7 @@
       <c r="B61" t="s">
         <v>407</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" t="s">
         <v>415</v>
       </c>
       <c r="D61" t="s">
@@ -4971,7 +4968,7 @@
       <c r="B62" t="s">
         <v>408</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" t="s">
         <v>416</v>
       </c>
       <c r="D62" t="s">
@@ -5004,7 +5001,7 @@
       <c r="B63" t="s">
         <v>409</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" t="s">
         <v>417</v>
       </c>
       <c r="D63" t="s">
@@ -5037,7 +5034,7 @@
       <c r="B64" t="s">
         <v>410</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" t="s">
         <v>390</v>
       </c>
       <c r="D64" t="s">
@@ -5070,7 +5067,7 @@
       <c r="B65" t="s">
         <v>411</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" t="s">
         <v>418</v>
       </c>
       <c r="D65" t="s">
@@ -5103,7 +5100,7 @@
       <c r="B66" t="s">
         <v>412</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" t="s">
         <v>390</v>
       </c>
       <c r="D66" t="s">
@@ -5136,7 +5133,7 @@
       <c r="B67" t="s">
         <v>414</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" t="s">
         <v>419</v>
       </c>
       <c r="D67" t="s">
@@ -5169,7 +5166,7 @@
       <c r="B68" t="s">
         <v>413</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" t="s">
         <v>420</v>
       </c>
       <c r="D68" t="s">
@@ -5346,7 +5343,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F73" s="2">
         <v>64</v>
@@ -7175,14 +7172,14 @@
       <c r="B127" t="s">
         <v>292</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="8" t="s">
         <v>427</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
       </c>
       <c r="E127" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F127" s="2">
         <v>64</v>
@@ -7208,7 +7205,7 @@
       <c r="B128" t="s">
         <v>293</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" t="s">
         <v>421</v>
       </c>
       <c r="D128" t="s">
@@ -7241,14 +7238,14 @@
       <c r="B129" t="s">
         <v>312</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="8" t="s">
         <v>428</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
       </c>
       <c r="E129" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F129" s="2">
         <v>64</v>
@@ -7274,7 +7271,7 @@
       <c r="B130" t="s">
         <v>313</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" t="s">
         <v>422</v>
       </c>
       <c r="D130" t="s">
@@ -7307,14 +7304,14 @@
       <c r="B131" t="s">
         <v>300</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="8" t="s">
         <v>429</v>
       </c>
       <c r="D131" t="s">
         <v>10</v>
       </c>
       <c r="E131" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F131" s="2">
         <v>64</v>
@@ -7340,7 +7337,7 @@
       <c r="B132" t="s">
         <v>301</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" t="s">
         <v>423</v>
       </c>
       <c r="D132" t="s">
@@ -7380,7 +7377,7 @@
         <v>10</v>
       </c>
       <c r="E133" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F133" s="2">
         <v>64</v>
@@ -7406,7 +7403,7 @@
       <c r="B134" t="s">
         <v>303</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" t="s">
         <v>424</v>
       </c>
       <c r="D134" t="s">
@@ -7439,14 +7436,14 @@
       <c r="B135" t="s">
         <v>304</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="8" t="s">
         <v>431</v>
       </c>
       <c r="D135" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F135" s="2">
         <v>64</v>
@@ -7472,7 +7469,7 @@
       <c r="B136" t="s">
         <v>305</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" t="s">
         <v>425</v>
       </c>
       <c r="D136" t="s">
@@ -7505,14 +7502,14 @@
       <c r="B137" t="s">
         <v>294</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="8" t="s">
         <v>432</v>
       </c>
       <c r="D137" t="s">
         <v>10</v>
       </c>
       <c r="E137" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F137" s="2">
         <v>64</v>
@@ -7538,7 +7535,7 @@
       <c r="B138" t="s">
         <v>295</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" t="s">
         <v>426</v>
       </c>
       <c r="D138" t="s">
@@ -7571,7 +7568,7 @@
       <c r="B139" t="s">
         <v>316</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" t="s">
         <v>398</v>
       </c>
       <c r="D139" t="s">
@@ -7604,7 +7601,7 @@
       <c r="B140" t="s">
         <v>317</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" t="s">
         <v>493</v>
       </c>
       <c r="D140" t="s">
@@ -7637,7 +7634,7 @@
       <c r="B141" t="s">
         <v>318</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" t="s">
         <v>494</v>
       </c>
       <c r="D141" t="s">
@@ -7670,7 +7667,7 @@
       <c r="B142" t="s">
         <v>319</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" t="s">
         <v>495</v>
       </c>
       <c r="D142" t="s">
@@ -7703,7 +7700,7 @@
       <c r="B143" t="s">
         <v>320</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" t="s">
         <v>496</v>
       </c>
       <c r="D143" t="s">
@@ -7736,7 +7733,7 @@
       <c r="B144" t="s">
         <v>321</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" t="s">
         <v>497</v>
       </c>
       <c r="D144" t="s">
@@ -7769,7 +7766,7 @@
       <c r="B145" t="s">
         <v>322</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" t="s">
         <v>498</v>
       </c>
       <c r="D145" t="s">
@@ -7802,7 +7799,7 @@
       <c r="B146" t="s">
         <v>323</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" t="s">
         <v>390</v>
       </c>
       <c r="D146" t="s">
@@ -7835,7 +7832,7 @@
       <c r="B147" t="s">
         <v>324</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" t="s">
         <v>390</v>
       </c>
       <c r="D147" t="s">
@@ -7868,7 +7865,7 @@
       <c r="B148" t="s">
         <v>325</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" t="s">
         <v>390</v>
       </c>
       <c r="D148" t="s">
@@ -7901,7 +7898,7 @@
       <c r="B149" t="s">
         <v>326</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" t="s">
         <v>390</v>
       </c>
       <c r="D149" t="s">
@@ -7934,7 +7931,7 @@
       <c r="B150" t="s">
         <v>327</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" t="s">
         <v>390</v>
       </c>
       <c r="D150" t="s">
@@ -7967,7 +7964,7 @@
       <c r="B151" t="s">
         <v>328</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" t="s">
         <v>390</v>
       </c>
       <c r="D151" t="s">
@@ -8000,7 +7997,7 @@
       <c r="B152" t="s">
         <v>329</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" t="s">
         <v>390</v>
       </c>
       <c r="D152" t="s">
@@ -8033,7 +8030,7 @@
       <c r="B153" t="s">
         <v>330</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" t="s">
         <v>390</v>
       </c>
       <c r="D153" t="s">
@@ -8066,7 +8063,7 @@
       <c r="B154" t="s">
         <v>331</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" t="s">
         <v>390</v>
       </c>
       <c r="D154" t="s">
@@ -8099,7 +8096,7 @@
       <c r="B155" t="s">
         <v>350</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" t="s">
         <v>499</v>
       </c>
       <c r="D155" t="s">
@@ -8132,7 +8129,7 @@
       <c r="B156" t="s">
         <v>351</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" t="s">
         <v>351</v>
       </c>
       <c r="D156" t="s">
@@ -8165,7 +8162,7 @@
       <c r="B157" t="s">
         <v>352</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" t="s">
         <v>352</v>
       </c>
       <c r="D157" t="s">
@@ -8198,7 +8195,7 @@
       <c r="B158" t="s">
         <v>353</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" t="s">
         <v>353</v>
       </c>
       <c r="D158" t="s">
@@ -8231,7 +8228,7 @@
       <c r="B159" t="s">
         <v>354</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" t="s">
         <v>354</v>
       </c>
       <c r="D159" t="s">
@@ -8264,7 +8261,7 @@
       <c r="B160" t="s">
         <v>355</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" t="s">
         <v>355</v>
       </c>
       <c r="D160" t="s">
@@ -8297,7 +8294,7 @@
       <c r="B161" t="s">
         <v>356</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="7" t="s">
         <v>500</v>
       </c>
       <c r="D161" t="s">
@@ -8330,7 +8327,7 @@
       <c r="B162" t="s">
         <v>357</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="7" t="s">
         <v>501</v>
       </c>
       <c r="D162" t="s">
@@ -8363,7 +8360,7 @@
       <c r="B163" t="s">
         <v>358</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="7" t="s">
         <v>502</v>
       </c>
       <c r="D163" t="s">
@@ -8396,7 +8393,7 @@
       <c r="B164" t="s">
         <v>359</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="7" t="s">
         <v>503</v>
       </c>
       <c r="D164" t="s">
@@ -8429,7 +8426,7 @@
       <c r="B165" t="s">
         <v>360</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="7" t="s">
         <v>504</v>
       </c>
       <c r="D165" t="s">
@@ -8462,7 +8459,7 @@
       <c r="B166" t="s">
         <v>372</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" t="s">
         <v>505</v>
       </c>
       <c r="D166" t="s">
@@ -8495,7 +8492,7 @@
       <c r="B167" t="s">
         <v>375</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" t="s">
         <v>506</v>
       </c>
       <c r="D167" t="s">

--- a/Assets/Resources/Additional/Excel/ItemDatas.xlsx
+++ b/Assets/Resources/Additional/Excel/ItemDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\Resources\Additional\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E36986-FE3B-4E32-A435-D679CDFC1D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A55316F-7813-4B3B-A688-7BE6FED22F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="545">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>버프</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Except</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1879,6 +1875,203 @@
   </si>
   <si>
     <t>생선이 달려있는 모닥불이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다불머리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seabullhead</t>
+  </si>
+  <si>
+    <t>새우</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shrimp</t>
+  </si>
+  <si>
+    <t>랍스터</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobster</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>꽃개</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anglerfish</t>
+  </si>
+  <si>
+    <t>아귀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlobFish</t>
+  </si>
+  <si>
+    <t>블롭피쉬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crimsonsnapper</t>
+  </si>
+  <si>
+    <t>적색통돔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가자미</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flounder</t>
+  </si>
+  <si>
+    <t>넙치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hailbut</t>
+  </si>
+  <si>
+    <t>Herring</t>
+  </si>
+  <si>
+    <t>청어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Largemouthbass</t>
+  </si>
+  <si>
+    <t>큰입배스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피라냐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piranha</t>
+  </si>
+  <si>
+    <t>LegendFish</t>
+  </si>
+  <si>
+    <t>전설물고기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름처럼 불을 뿜는 듯한 물고기</t>
+  </si>
+  <si>
+    <t>작고 맛있는 갑각류</t>
+  </si>
+  <si>
+    <t>크고 귀한 고급 갑각류</t>
+  </si>
+  <si>
+    <t>집게발이 특징인 갑각류</t>
+  </si>
+  <si>
+    <t>심해에 살며 독특한 생김새의 물고기</t>
+  </si>
+  <si>
+    <t>깊은 바다에 사는 신기한 물고기</t>
+  </si>
+  <si>
+    <t>붉은색을 띠는 물고기</t>
+  </si>
+  <si>
+    <t>납작한 모양의 물고기</t>
+  </si>
+  <si>
+    <t>가자미와 비슷하지만 더 큰 물고기</t>
+  </si>
+  <si>
+    <t>흔하게 잡히는 작은 물고기</t>
+  </si>
+  <si>
+    <t>날카로운 이빨을 가진 위험한 물고기</t>
+  </si>
+  <si>
+    <t>이야기에만 등장하는 신비로운 전설의 물고기</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF090909"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>큰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF090909"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF090909"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF090909"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF090909"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특징인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF090909"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF090909"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>민물고기</t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1886,7 +2079,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2072,18 +2265,40 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF090909"/>
-      <name val="Pretendard"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF090909"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF090909"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF090909"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2537,7 +2752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2562,11 +2777,20 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2923,41 +3147,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P167"/>
+  <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="8"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickBot="1">
+    <row r="1" spans="1:15" ht="18" thickBot="1">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -2972,13 +3197,10 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1" t="s">
         <v>348</v>
-      </c>
-      <c r="M1" t="s">
-        <v>349</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" thickBot="1">
@@ -2986,22 +3208,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>378</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>377</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -3019,22 +3241,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>379</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -3052,22 +3274,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>380</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -3085,22 +3307,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>381</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -3118,22 +3340,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>382</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
         <v>40</v>
       </c>
       <c r="F6" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -3151,13 +3373,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>383</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
@@ -3166,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K7" s="2">
         <v>3</v>
@@ -3184,13 +3406,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>384</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>383</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -3199,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K8" s="2">
         <v>3</v>
@@ -3217,13 +3439,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>385</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>384</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
@@ -3232,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K9" s="2">
         <v>3</v>
@@ -3250,13 +3472,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>386</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>8</v>
@@ -3265,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -3283,13 +3505,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>390</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2">
         <v>7</v>
@@ -3298,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3316,22 +3538,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>390</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K12" s="2">
         <v>3</v>
@@ -3349,13 +3571,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -3364,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3382,13 +3604,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>390</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2">
         <v>6</v>
@@ -3397,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3415,13 +3637,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>390</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
@@ -3430,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3448,13 +3670,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>390</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
@@ -3463,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3481,13 +3703,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
@@ -3496,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3514,13 +3736,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>390</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2">
         <v>8</v>
@@ -3529,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -3547,13 +3769,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>390</v>
+        <v>46</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2">
         <v>15</v>
@@ -3562,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3580,13 +3802,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>390</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2">
         <v>12</v>
@@ -3595,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -3613,13 +3835,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>390</v>
+        <v>52</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2">
         <v>8</v>
@@ -3628,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -3646,13 +3868,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>390</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
       </c>
       <c r="E22" s="2">
         <v>7</v>
@@ -3661,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -3679,13 +3901,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D23" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>390</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
@@ -3694,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -3712,13 +3934,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>390</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
       </c>
       <c r="E24" s="2">
         <v>12</v>
@@ -3727,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -3745,13 +3967,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D25" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>390</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
       </c>
       <c r="E25" s="2">
         <v>15</v>
@@ -3760,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -3778,22 +4000,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>387</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>386</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -3811,22 +4033,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>388</v>
+        <v>62</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2">
         <v>3</v>
       </c>
       <c r="F27" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -3844,22 +4066,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>389</v>
+        <v>63</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>388</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2">
         <v>3</v>
       </c>
       <c r="F28" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
@@ -3877,22 +4099,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" t="s">
-        <v>391</v>
+        <v>64</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>390</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2">
         <v>4</v>
       </c>
       <c r="F29" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -3910,13 +4132,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>392</v>
+        <v>65</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>391</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
@@ -3925,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K30" s="2">
         <v>5</v>
@@ -3943,13 +4165,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>393</v>
+        <v>66</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
@@ -3958,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K31" s="2">
         <v>5</v>
@@ -3976,13 +4198,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>394</v>
+        <v>67</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
@@ -3991,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K32" s="2">
         <v>5</v>
@@ -4009,22 +4231,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>390</v>
+        <v>68</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K33" s="2">
         <v>5</v>
@@ -4042,13 +4264,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" t="s">
-        <v>395</v>
+        <v>69</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>394</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="2">
         <v>12</v>
@@ -4057,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K34" s="2">
         <v>5</v>
@@ -4075,13 +4297,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>396</v>
+        <v>70</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>395</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2">
         <v>12</v>
@@ -4090,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K35" s="2">
         <v>5</v>
@@ -4108,13 +4330,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" t="s">
-        <v>397</v>
+        <v>71</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>396</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="2">
         <v>12</v>
@@ -4123,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K36" s="2">
         <v>5</v>
@@ -4141,13 +4363,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>390</v>
+        <v>72</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" s="2">
         <v>15</v>
@@ -4156,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -4174,13 +4396,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>390</v>
+        <v>73</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2">
         <v>20</v>
@@ -4189,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
@@ -4207,13 +4429,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>390</v>
+        <v>74</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2">
         <v>15</v>
@@ -4222,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -4240,13 +4462,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" t="s">
-        <v>390</v>
+        <v>75</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2">
         <v>10</v>
@@ -4255,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
@@ -4273,22 +4495,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" t="s">
-        <v>398</v>
+        <v>77</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2">
         <v>7</v>
       </c>
       <c r="F41" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -4306,22 +4528,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>400</v>
+        <v>76</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>399</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2">
         <v>15</v>
       </c>
       <c r="F42" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -4339,22 +4561,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" t="s">
-        <v>399</v>
+        <v>78</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2">
         <v>80</v>
       </c>
       <c r="F43" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -4372,13 +4594,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>401</v>
+        <v>79</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>400</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2">
         <v>30</v>
@@ -4387,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K44" s="2">
         <v>7</v>
@@ -4405,13 +4627,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>402</v>
+        <v>80</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2">
         <v>30</v>
@@ -4420,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K45" s="2">
         <v>7</v>
@@ -4438,13 +4660,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>403</v>
+        <v>81</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>402</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" s="2">
         <v>30</v>
@@ -4453,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K46" s="2">
         <v>7</v>
@@ -4471,13 +4693,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" t="s">
-        <v>404</v>
+        <v>82</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>403</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47" s="2">
         <v>35</v>
@@ -4486,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -4504,13 +4726,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" t="s">
-        <v>390</v>
+        <v>83</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48" s="2">
         <v>40</v>
@@ -4519,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
@@ -4537,13 +4759,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" t="s">
-        <v>390</v>
+        <v>84</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E49" s="2">
         <v>35</v>
@@ -4552,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
@@ -4570,13 +4792,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>390</v>
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E50" s="2">
         <v>30</v>
@@ -4585,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
@@ -4603,22 +4825,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s">
-        <v>390</v>
+        <v>86</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="2">
         <v>2</v>
       </c>
       <c r="F51" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K51" s="2">
         <v>7</v>
@@ -4636,13 +4858,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>390</v>
+        <v>87</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>389</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E52" s="2">
         <v>30</v>
@@ -4651,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
@@ -4669,13 +4891,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" t="s">
-        <v>390</v>
+        <v>88</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2">
         <v>40</v>
@@ -4684,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
@@ -4702,13 +4924,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" t="s">
-        <v>390</v>
+        <v>89</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="2">
         <v>70</v>
@@ -4717,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
@@ -4735,13 +4957,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" t="s">
-        <v>390</v>
+        <v>90</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E55" s="2">
         <v>60</v>
@@ -4750,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
@@ -4768,13 +4990,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" t="s">
-        <v>390</v>
+        <v>91</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" s="2">
         <v>40</v>
@@ -4783,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
@@ -4801,13 +5023,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" t="s">
-        <v>390</v>
+        <v>92</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E57" s="2">
         <v>35</v>
@@ -4816,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
@@ -4834,22 +5056,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>491</v>
+        <v>154</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>490</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2">
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
@@ -4867,22 +5089,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>492</v>
+        <v>153</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>491</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E59" s="2">
         <v>5</v>
       </c>
       <c r="F59" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
@@ -4900,13 +5122,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>404</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C60" t="s">
-        <v>406</v>
-      </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
@@ -4915,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K60" s="2">
         <v>0</v>
@@ -4933,13 +5155,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>407</v>
-      </c>
-      <c r="C61" t="s">
-        <v>415</v>
+        <v>406</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E61" s="2">
         <v>3</v>
@@ -4948,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K61" s="2">
         <v>0</v>
@@ -4966,13 +5188,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>408</v>
-      </c>
-      <c r="C62" t="s">
-        <v>416</v>
+        <v>407</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>415</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62" s="2">
         <v>3</v>
@@ -4981,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K62" s="2">
         <v>0</v>
@@ -4999,13 +5221,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>409</v>
-      </c>
-      <c r="C63" t="s">
-        <v>417</v>
+        <v>408</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>416</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E63" s="2">
         <v>3</v>
@@ -5014,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K63" s="2">
         <v>0</v>
@@ -5032,13 +5254,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>410</v>
-      </c>
-      <c r="C64" t="s">
-        <v>390</v>
+        <v>409</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E64" s="2">
         <v>3</v>
@@ -5047,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K64" s="2">
         <v>0</v>
@@ -5065,13 +5287,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>411</v>
-      </c>
-      <c r="C65" t="s">
-        <v>418</v>
+        <v>410</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E65" s="2">
         <v>3</v>
@@ -5080,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K65" s="2">
         <v>0</v>
@@ -5098,13 +5320,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>412</v>
-      </c>
-      <c r="C66" t="s">
-        <v>390</v>
+        <v>411</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E66" s="2">
         <v>3</v>
@@ -5113,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K66" s="2">
         <v>0</v>
@@ -5126,18 +5348,18 @@
       </c>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:16" ht="17.25" thickBot="1">
+    <row r="67" spans="1:16" ht="18" thickBot="1">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>414</v>
-      </c>
-      <c r="C67" t="s">
-        <v>419</v>
+        <v>413</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E67" s="2">
         <v>3</v>
@@ -5146,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K67" s="2">
         <v>0</v>
@@ -5164,13 +5386,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>413</v>
-      </c>
-      <c r="C68" t="s">
-        <v>420</v>
+        <v>412</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E68" s="2">
         <v>5</v>
@@ -5179,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K68" s="2">
         <v>0</v>
@@ -5198,22 +5420,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>433</v>
+        <v>174</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" s="2">
         <v>80</v>
       </c>
       <c r="F69" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K69" s="2">
         <v>0</v>
@@ -5232,22 +5454,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>434</v>
+        <v>175</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>433</v>
       </c>
       <c r="D70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E70" s="2">
         <v>15</v>
       </c>
       <c r="F70" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K70" s="2">
         <v>0</v>
@@ -5266,22 +5488,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>435</v>
+        <v>176</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2">
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K71" s="2">
         <v>0</v>
@@ -5300,22 +5522,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>436</v>
+        <v>177</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>435</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E72" s="2">
         <v>20</v>
       </c>
       <c r="F72" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K72" s="2">
         <v>0</v>
@@ -5334,22 +5556,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>437</v>
+        <v>182</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>436</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" s="2">
         <v>7</v>
       </c>
       <c r="F73" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K73" s="2">
         <v>0</v>
@@ -5368,22 +5590,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>438</v>
+        <v>183</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>437</v>
       </c>
       <c r="D74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E74" s="2">
         <v>10</v>
       </c>
       <c r="F74" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K74" s="2">
         <v>0</v>
@@ -5402,22 +5624,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>439</v>
+        <v>187</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2">
         <v>15</v>
       </c>
       <c r="F75" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K75" s="2">
         <v>0</v>
@@ -5436,22 +5658,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>440</v>
+        <v>188</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E76" s="2">
         <v>10</v>
       </c>
       <c r="F76" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K76" s="2">
         <v>0</v>
@@ -5470,22 +5692,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>441</v>
+        <v>189</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>440</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="2">
         <v>20</v>
       </c>
       <c r="F77" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K77" s="2">
         <v>0</v>
@@ -5504,22 +5726,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>442</v>
+        <v>190</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>441</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78" s="2">
         <v>5</v>
       </c>
       <c r="F78" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K78" s="2">
         <v>0</v>
@@ -5538,22 +5760,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>443</v>
+        <v>191</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>442</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" s="2">
         <v>15</v>
       </c>
       <c r="F79" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K79" s="2">
         <v>0</v>
@@ -5572,22 +5794,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>444</v>
+        <v>192</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E80" s="2">
         <v>7</v>
       </c>
       <c r="F80" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K80" s="2">
         <v>0</v>
@@ -5606,22 +5828,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>445</v>
+        <v>193</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>444</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2">
         <v>20</v>
       </c>
       <c r="F81" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K81" s="2">
         <v>0</v>
@@ -5640,22 +5862,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>446</v>
+        <v>194</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E82" s="2">
         <v>5</v>
       </c>
       <c r="F82" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K82" s="2">
         <v>0</v>
@@ -5674,22 +5896,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>447</v>
+        <v>195</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>446</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="2">
         <v>25</v>
       </c>
       <c r="F83" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K83" s="2">
         <v>0</v>
@@ -5708,22 +5930,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>448</v>
+        <v>196</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>447</v>
       </c>
       <c r="D84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E84" s="2">
         <v>5</v>
       </c>
       <c r="F84" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K84" s="2">
         <v>0</v>
@@ -5742,22 +5964,22 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>449</v>
+        <v>197</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" s="2">
         <v>15</v>
       </c>
       <c r="F85" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K85" s="2">
         <v>0</v>
@@ -5776,22 +5998,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>199</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>450</v>
+        <v>198</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>449</v>
       </c>
       <c r="D86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E86" s="2">
         <v>25</v>
       </c>
       <c r="F86" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K86" s="2">
         <v>0</v>
@@ -5810,22 +6032,22 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>451</v>
+        <v>199</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>450</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2">
         <v>20</v>
       </c>
       <c r="F87" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K87" s="2">
         <v>0</v>
@@ -5844,22 +6066,22 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>452</v>
+        <v>200</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>451</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E88" s="2">
         <v>5</v>
       </c>
       <c r="F88" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K88" s="2">
         <v>0</v>
@@ -5878,22 +6100,22 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>453</v>
+        <v>201</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>452</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" s="2">
         <v>20</v>
       </c>
       <c r="F89" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K89" s="2">
         <v>0</v>
@@ -5912,22 +6134,22 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>454</v>
+        <v>202</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>453</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E90" s="2">
         <v>7</v>
       </c>
       <c r="F90" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K90" s="2">
         <v>0</v>
@@ -5946,22 +6168,22 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>455</v>
+        <v>203</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>454</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="2">
         <v>45</v>
       </c>
       <c r="F91" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K91" s="2">
         <v>0</v>
@@ -5980,22 +6202,22 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>456</v>
+        <v>204</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>455</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E92" s="2">
         <v>10</v>
       </c>
       <c r="F92" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K92" s="2">
         <v>0</v>
@@ -6014,22 +6236,22 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>457</v>
+        <v>205</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>456</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" s="2">
         <v>10</v>
       </c>
       <c r="F93" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K93" s="2">
         <v>0</v>
@@ -6048,22 +6270,22 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>458</v>
+        <v>206</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>457</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E94" s="2">
         <v>5</v>
       </c>
       <c r="F94" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K94" s="2">
         <v>0</v>
@@ -6082,22 +6304,22 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>459</v>
+        <v>207</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>458</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" s="2">
         <v>20</v>
       </c>
       <c r="F95" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K95" s="2">
         <v>0</v>
@@ -6116,22 +6338,22 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>460</v>
+        <v>208</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>459</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E96" s="2">
         <v>5</v>
       </c>
       <c r="F96" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K96" s="2">
         <v>0</v>
@@ -6150,22 +6372,22 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>461</v>
+        <v>231</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>460</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" s="2">
         <v>40</v>
       </c>
       <c r="F97" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K97" s="2">
         <v>0</v>
@@ -6184,22 +6406,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>462</v>
+        <v>232</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>461</v>
       </c>
       <c r="D98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E98" s="2">
         <v>10</v>
       </c>
       <c r="F98" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K98" s="2">
         <v>0</v>
@@ -6218,22 +6440,22 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>463</v>
+        <v>233</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>462</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="2">
         <v>20</v>
       </c>
       <c r="F99" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K99" s="2">
         <v>0</v>
@@ -6252,22 +6474,22 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>464</v>
+        <v>234</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>463</v>
       </c>
       <c r="D100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E100" s="2">
         <v>5</v>
       </c>
       <c r="F100" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G100" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K100" s="2">
         <v>0</v>
@@ -6286,22 +6508,22 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>465</v>
+        <v>235</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>464</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" s="2">
         <v>40</v>
       </c>
       <c r="F101" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K101" s="2">
         <v>0</v>
@@ -6320,22 +6542,22 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>466</v>
+        <v>236</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>465</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E102" s="2">
         <v>10</v>
       </c>
       <c r="F102" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K102" s="2">
         <v>0</v>
@@ -6354,22 +6576,22 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>467</v>
+        <v>237</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>466</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E103" s="2">
         <v>60</v>
       </c>
       <c r="F103" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K103" s="2">
         <v>0</v>
@@ -6388,22 +6610,22 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>468</v>
+        <v>238</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>467</v>
       </c>
       <c r="D104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E104" s="2">
         <v>15</v>
       </c>
       <c r="F104" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K104" s="2">
         <v>0</v>
@@ -6422,22 +6644,22 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>469</v>
+        <v>239</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>468</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" s="2">
         <v>30</v>
       </c>
       <c r="F105" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G105" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K105" s="2">
         <v>0</v>
@@ -6456,22 +6678,22 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>470</v>
+        <v>240</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>469</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E106" s="2">
         <v>7</v>
       </c>
       <c r="F106" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K106" s="2">
         <v>0</v>
@@ -6490,22 +6712,22 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>471</v>
+        <v>241</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>470</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" s="2">
         <v>30</v>
       </c>
       <c r="F107" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K107" s="2">
         <v>0</v>
@@ -6524,22 +6746,22 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>472</v>
+        <v>242</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="D108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E108" s="2">
         <v>7</v>
       </c>
       <c r="F108" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K108" s="2">
         <v>0</v>
@@ -6558,22 +6780,22 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>473</v>
+        <v>243</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>472</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E109" s="2">
         <v>30</v>
       </c>
       <c r="F109" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K109" s="2">
         <v>0</v>
@@ -6592,22 +6814,22 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>474</v>
+        <v>244</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>473</v>
       </c>
       <c r="D110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E110" s="2">
         <v>7</v>
       </c>
       <c r="F110" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K110" s="2">
         <v>0</v>
@@ -6626,22 +6848,22 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>475</v>
+        <v>245</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>474</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2">
         <v>100</v>
       </c>
       <c r="F111" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K111" s="2">
         <v>0</v>
@@ -6660,22 +6882,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>476</v>
+        <v>246</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>475</v>
       </c>
       <c r="D112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E112" s="2">
         <v>20</v>
       </c>
       <c r="F112" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K112" s="2">
         <v>0</v>
@@ -6694,22 +6916,22 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>477</v>
+        <v>247</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>476</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E113" s="2">
         <v>100</v>
       </c>
       <c r="F113" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K113" s="2">
         <v>0</v>
@@ -6728,22 +6950,22 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>478</v>
+        <v>248</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>477</v>
       </c>
       <c r="D114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E114" s="2">
         <v>20</v>
       </c>
       <c r="F114" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K114" s="2">
         <v>0</v>
@@ -6762,22 +6984,22 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>479</v>
+        <v>249</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>478</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E115" s="2">
         <v>25</v>
       </c>
       <c r="F115" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G115" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K115" s="2">
         <v>0</v>
@@ -6796,22 +7018,22 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>480</v>
+        <v>250</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>479</v>
       </c>
       <c r="D116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2">
         <v>5</v>
       </c>
       <c r="F116" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K116" s="2">
         <v>0</v>
@@ -6830,22 +7052,22 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>481</v>
+        <v>251</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>480</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E117" s="2">
         <v>30</v>
       </c>
       <c r="F117" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K117" s="2">
         <v>0</v>
@@ -6864,22 +7086,22 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>482</v>
+        <v>252</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>481</v>
       </c>
       <c r="D118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E118" s="2">
         <v>7</v>
       </c>
       <c r="F118" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K118" s="2">
         <v>0</v>
@@ -6898,22 +7120,22 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>483</v>
+        <v>253</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>482</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E119" s="2">
         <v>120</v>
       </c>
       <c r="F119" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G119" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K119" s="2">
         <v>0</v>
@@ -6932,22 +7154,22 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>484</v>
+        <v>254</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>483</v>
       </c>
       <c r="D120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2">
         <v>25</v>
       </c>
       <c r="F120" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G120" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K120" s="2">
         <v>0</v>
@@ -6966,22 +7188,22 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>485</v>
+        <v>255</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>484</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E121" s="2">
         <v>15</v>
       </c>
       <c r="F121" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G121" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K121" s="2">
         <v>0</v>
@@ -7000,22 +7222,22 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>486</v>
+        <v>256</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>485</v>
       </c>
       <c r="D122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2">
         <v>20</v>
       </c>
       <c r="F122" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K122" s="2">
         <v>0</v>
@@ -7034,22 +7256,22 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>487</v>
+        <v>257</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>486</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E123" s="2">
         <v>50</v>
       </c>
       <c r="F123" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G123" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K123" s="2">
         <v>0</v>
@@ -7068,22 +7290,22 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>488</v>
+        <v>258</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>487</v>
       </c>
       <c r="D124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2">
         <v>12</v>
       </c>
       <c r="F124" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G124" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K124" s="2">
         <v>0</v>
@@ -7102,22 +7324,22 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>260</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>489</v>
+        <v>259</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>488</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E125" s="2">
         <v>10</v>
       </c>
       <c r="F125" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G125" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K125" s="2">
         <v>0</v>
@@ -7136,22 +7358,22 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>490</v>
+        <v>260</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>489</v>
       </c>
       <c r="D126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E126" s="2">
         <v>5</v>
       </c>
       <c r="F126" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G126" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K126" s="2">
         <v>0</v>
@@ -7170,22 +7392,22 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>292</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>427</v>
+        <v>291</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E127" s="2">
         <v>15</v>
       </c>
       <c r="F127" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K127" s="2">
         <v>0</v>
@@ -7203,22 +7425,22 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>293</v>
-      </c>
-      <c r="C128" t="s">
-        <v>421</v>
+        <v>292</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>420</v>
       </c>
       <c r="D128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E128" s="2">
         <v>8</v>
       </c>
       <c r="F128" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G128" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K128" s="2">
         <v>0</v>
@@ -7236,22 +7458,22 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>312</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>428</v>
+        <v>311</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>427</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E129" s="2">
         <v>10</v>
       </c>
       <c r="F129" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G129" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K129" s="2">
         <v>0</v>
@@ -7269,22 +7491,22 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>313</v>
-      </c>
-      <c r="C130" t="s">
-        <v>422</v>
+        <v>312</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="D130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E130" s="2">
         <v>10</v>
       </c>
       <c r="F130" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G130" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K130" s="2">
         <v>0</v>
@@ -7302,22 +7524,22 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>300</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>429</v>
+        <v>299</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>428</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E131" s="2">
         <v>25</v>
       </c>
       <c r="F131" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K131" s="2">
         <v>0</v>
@@ -7335,22 +7557,22 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>301</v>
-      </c>
-      <c r="C132" t="s">
-        <v>423</v>
+        <v>300</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="D132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E132" s="2">
         <v>12</v>
       </c>
       <c r="F132" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G132" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K132" s="2">
         <v>0</v>
@@ -7368,22 +7590,22 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>302</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>430</v>
+        <v>301</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>429</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E133" s="2">
         <v>30</v>
       </c>
       <c r="F133" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G133" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K133" s="2">
         <v>0</v>
@@ -7401,22 +7623,22 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>303</v>
-      </c>
-      <c r="C134" t="s">
-        <v>424</v>
+        <v>302</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>423</v>
       </c>
       <c r="D134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E134" s="2">
         <v>15</v>
       </c>
       <c r="F134" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G134" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K134" s="2">
         <v>0</v>
@@ -7434,22 +7656,22 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>304</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>431</v>
+        <v>303</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E135" s="2">
         <v>10</v>
       </c>
       <c r="F135" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G135" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K135" s="2">
         <v>0</v>
@@ -7467,22 +7689,22 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>305</v>
-      </c>
-      <c r="C136" t="s">
-        <v>425</v>
+        <v>304</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="D136" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E136" s="2">
         <v>8</v>
       </c>
       <c r="F136" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G136" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K136" s="2">
         <v>0</v>
@@ -7500,22 +7722,22 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>294</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>432</v>
+        <v>293</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E137" s="2">
         <v>20</v>
       </c>
       <c r="F137" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G137" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K137" s="2">
         <v>0</v>
@@ -7533,22 +7755,22 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>295</v>
-      </c>
-      <c r="C138" t="s">
-        <v>426</v>
+        <v>294</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>425</v>
       </c>
       <c r="D138" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E138" s="2">
         <v>10</v>
       </c>
       <c r="F138" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G138" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K138" s="2">
         <v>0</v>
@@ -7566,22 +7788,22 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>316</v>
-      </c>
-      <c r="C139" t="s">
-        <v>398</v>
+        <v>315</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E139" s="2">
         <v>15</v>
       </c>
       <c r="F139" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G139" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K139" s="2">
         <v>0</v>
@@ -7599,22 +7821,22 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>317</v>
-      </c>
-      <c r="C140" t="s">
-        <v>493</v>
+        <v>316</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>492</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E140" s="2">
         <v>30</v>
       </c>
       <c r="F140" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G140" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K140" s="2">
         <v>0</v>
@@ -7632,22 +7854,22 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>318</v>
-      </c>
-      <c r="C141" t="s">
-        <v>494</v>
+        <v>317</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>493</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E141" s="2">
         <v>120</v>
       </c>
       <c r="F141" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G141" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K141" s="2">
         <v>0</v>
@@ -7665,13 +7887,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>319</v>
-      </c>
-      <c r="C142" t="s">
-        <v>495</v>
+        <v>318</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>494</v>
       </c>
       <c r="D142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E142" s="2">
         <v>50</v>
@@ -7680,7 +7902,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K142" s="2">
         <v>12</v>
@@ -7698,13 +7920,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>320</v>
-      </c>
-      <c r="C143" t="s">
-        <v>496</v>
+        <v>319</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>495</v>
       </c>
       <c r="D143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E143" s="2">
         <v>50</v>
@@ -7713,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K143" s="2">
         <v>12</v>
@@ -7731,13 +7953,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>321</v>
-      </c>
-      <c r="C144" t="s">
-        <v>497</v>
+        <v>320</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>496</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E144" s="2">
         <v>50</v>
@@ -7746,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K144" s="2">
         <v>12</v>
@@ -7764,13 +7986,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>322</v>
-      </c>
-      <c r="C145" t="s">
-        <v>498</v>
+        <v>321</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>497</v>
       </c>
       <c r="D145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E145" s="2">
         <v>60</v>
@@ -7779,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K145" s="2">
         <v>0</v>
@@ -7797,13 +8019,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>323</v>
-      </c>
-      <c r="C146" t="s">
-        <v>390</v>
+        <v>322</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E146" s="2">
         <v>70</v>
@@ -7812,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K146" s="2">
         <v>0</v>
@@ -7830,13 +8052,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>324</v>
-      </c>
-      <c r="C147" t="s">
-        <v>390</v>
+        <v>323</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E147" s="2">
         <v>50</v>
@@ -7845,7 +8067,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K147" s="2">
         <v>0</v>
@@ -7863,22 +8085,22 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>325</v>
-      </c>
-      <c r="C148" t="s">
-        <v>390</v>
+        <v>324</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E148" s="2">
         <v>3</v>
       </c>
       <c r="F148" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K148" s="2">
         <v>12</v>
@@ -7896,13 +8118,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>326</v>
-      </c>
-      <c r="C149" t="s">
-        <v>390</v>
+        <v>325</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E149" s="2">
         <v>50</v>
@@ -7911,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K149" s="2">
         <v>0</v>
@@ -7929,13 +8151,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>327</v>
-      </c>
-      <c r="C150" t="s">
-        <v>390</v>
+        <v>326</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D150" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E150" s="2">
         <v>70</v>
@@ -7944,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K150" s="2">
         <v>0</v>
@@ -7962,13 +8184,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>328</v>
-      </c>
-      <c r="C151" t="s">
-        <v>390</v>
+        <v>327</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E151" s="2">
         <v>150</v>
@@ -7977,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K151" s="2">
         <v>0</v>
@@ -7995,13 +8217,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>329</v>
-      </c>
-      <c r="C152" t="s">
-        <v>390</v>
+        <v>328</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E152" s="2">
         <v>100</v>
@@ -8010,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K152" s="2">
         <v>0</v>
@@ -8028,13 +8250,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>330</v>
-      </c>
-      <c r="C153" t="s">
-        <v>390</v>
+        <v>329</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E153" s="2">
         <v>70</v>
@@ -8043,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K153" s="2">
         <v>0</v>
@@ -8061,13 +8283,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>331</v>
-      </c>
-      <c r="C154" t="s">
-        <v>390</v>
+        <v>330</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="D154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E154" s="2">
         <v>60</v>
@@ -8076,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K154" s="2">
         <v>0</v>
@@ -8094,22 +8316,22 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>350</v>
-      </c>
-      <c r="C155" t="s">
-        <v>499</v>
+        <v>349</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>498</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E155" s="2">
         <v>1</v>
       </c>
       <c r="F155" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G155" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K155" s="2">
         <v>0</v>
@@ -8127,22 +8349,22 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>351</v>
-      </c>
-      <c r="C156" t="s">
-        <v>351</v>
+        <v>350</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>350</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E156" s="2">
         <v>1</v>
       </c>
       <c r="F156" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G156" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K156" s="2">
         <v>0</v>
@@ -8160,22 +8382,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>352</v>
-      </c>
-      <c r="C157" t="s">
-        <v>352</v>
+        <v>351</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E157" s="2">
         <v>1</v>
       </c>
       <c r="F157" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G157" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K157" s="2">
         <v>0</v>
@@ -8193,22 +8415,22 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>353</v>
-      </c>
-      <c r="C158" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>352</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E158" s="2">
         <v>1</v>
       </c>
       <c r="F158" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G158" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K158" s="2">
         <v>0</v>
@@ -8226,22 +8448,22 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>354</v>
-      </c>
-      <c r="C159" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E159" s="2">
         <v>1</v>
       </c>
       <c r="F159" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G159" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K159" s="2">
         <v>0</v>
@@ -8259,22 +8481,22 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>355</v>
-      </c>
-      <c r="C160" t="s">
-        <v>355</v>
+        <v>354</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E160" s="2">
         <v>1</v>
       </c>
       <c r="F160" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K160" s="2">
         <v>0</v>
@@ -8292,22 +8514,22 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E161" s="2">
         <v>5</v>
       </c>
       <c r="F161" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G161" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K161" s="2">
         <v>0</v>
@@ -8320,27 +8542,27 @@
       </c>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="21" thickBot="1">
+    <row r="162" spans="1:15" thickBot="1">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E162" s="2">
         <v>25</v>
       </c>
       <c r="F162" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G162" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K162" s="2">
         <v>0</v>
@@ -8351,29 +8573,28 @@
       <c r="M162" s="2">
         <v>1</v>
       </c>
-      <c r="O162" s="1"/>
     </row>
     <row r="163" spans="1:15" ht="21" thickBot="1">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E163" s="2">
         <v>8</v>
       </c>
       <c r="F163" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G163" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K163" s="2">
         <v>0</v>
@@ -8391,22 +8612,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E164" s="2">
         <v>12</v>
       </c>
       <c r="F164" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G164" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K164" s="2">
         <v>0</v>
@@ -8424,22 +8645,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E165" s="2">
         <v>40</v>
       </c>
       <c r="F165" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G165" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K165" s="2">
         <v>0</v>
@@ -8457,13 +8678,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>371</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D166" t="s">
         <v>372</v>
-      </c>
-      <c r="C166" t="s">
-        <v>505</v>
-      </c>
-      <c r="D166" t="s">
-        <v>373</v>
       </c>
       <c r="E166" s="2">
         <v>50</v>
@@ -8472,7 +8693,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K166" s="2">
         <v>0</v>
@@ -8485,18 +8706,18 @@
       </c>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" ht="21" thickBot="1">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>374</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D167" t="s">
         <v>375</v>
-      </c>
-      <c r="C167" t="s">
-        <v>506</v>
-      </c>
-      <c r="D167" t="s">
-        <v>376</v>
       </c>
       <c r="E167" s="3">
         <v>30</v>
@@ -8505,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K167" s="3">
         <v>0</v>
@@ -8516,6 +8737,448 @@
       <c r="M167" s="3">
         <v>1</v>
       </c>
+      <c r="O167" s="1"/>
+    </row>
+    <row r="168" spans="1:15" ht="21" thickBot="1">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>506</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="D168" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="2">
+        <v>12</v>
+      </c>
+      <c r="F168" s="2">
+        <v>20</v>
+      </c>
+      <c r="G168" t="s">
+        <v>507</v>
+      </c>
+      <c r="K168" s="2">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2">
+        <v>1</v>
+      </c>
+      <c r="M168" s="2">
+        <v>1</v>
+      </c>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+    </row>
+    <row r="169" spans="1:15" ht="21" thickBot="1">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>508</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D169" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="2">
+        <v>18</v>
+      </c>
+      <c r="F169" s="2">
+        <v>20</v>
+      </c>
+      <c r="G169" t="s">
+        <v>509</v>
+      </c>
+      <c r="K169" s="2">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2">
+        <v>1</v>
+      </c>
+      <c r="M169" s="2">
+        <v>1</v>
+      </c>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+    </row>
+    <row r="170" spans="1:15" ht="21" thickBot="1">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>510</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="2">
+        <v>65</v>
+      </c>
+      <c r="F170" s="2">
+        <v>20</v>
+      </c>
+      <c r="G170" t="s">
+        <v>511</v>
+      </c>
+      <c r="K170" s="2">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2">
+        <v>1</v>
+      </c>
+      <c r="M170" s="2">
+        <v>1</v>
+      </c>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row r="171" spans="1:15" ht="21" thickBot="1">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>513</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="2">
+        <v>55</v>
+      </c>
+      <c r="F171" s="2">
+        <v>20</v>
+      </c>
+      <c r="G171" t="s">
+        <v>512</v>
+      </c>
+      <c r="K171" s="2">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2">
+        <v>1</v>
+      </c>
+      <c r="M171" s="2">
+        <v>1</v>
+      </c>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row r="172" spans="1:15" ht="21" thickBot="1">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>515</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="2">
+        <v>38</v>
+      </c>
+      <c r="F172" s="2">
+        <v>20</v>
+      </c>
+      <c r="G172" t="s">
+        <v>514</v>
+      </c>
+      <c r="K172" s="2">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2">
+        <v>1</v>
+      </c>
+      <c r="M172" s="2">
+        <v>1</v>
+      </c>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+    </row>
+    <row r="173" spans="1:15" ht="21" thickBot="1">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>517</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="2">
+        <v>90</v>
+      </c>
+      <c r="F173" s="2">
+        <v>20</v>
+      </c>
+      <c r="G173" t="s">
+        <v>516</v>
+      </c>
+      <c r="K173" s="2">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2">
+        <v>1</v>
+      </c>
+      <c r="M173" s="2">
+        <v>1</v>
+      </c>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+    </row>
+    <row r="174" spans="1:15" ht="21" thickBot="1">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>519</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45</v>
+      </c>
+      <c r="F174" s="2">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>518</v>
+      </c>
+      <c r="K174" s="3">
+        <v>0</v>
+      </c>
+      <c r="L174" s="3">
+        <v>1</v>
+      </c>
+      <c r="M174" s="3">
+        <v>1</v>
+      </c>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+    </row>
+    <row r="175" spans="1:15" ht="21" thickBot="1">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>520</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="2">
+        <v>25</v>
+      </c>
+      <c r="F175" s="2">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>521</v>
+      </c>
+      <c r="K175" s="2">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2">
+        <v>1</v>
+      </c>
+      <c r="M175" s="2">
+        <v>1</v>
+      </c>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="1:15" ht="21" thickBot="1">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>522</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="2">
+        <v>32</v>
+      </c>
+      <c r="F176" s="2">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>523</v>
+      </c>
+      <c r="K176" s="2">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2">
+        <v>1</v>
+      </c>
+      <c r="M176" s="2">
+        <v>1</v>
+      </c>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="1:14" ht="21" thickBot="1">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>525</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="2">
+        <v>7</v>
+      </c>
+      <c r="F177" s="2">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>524</v>
+      </c>
+      <c r="K177" s="2">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2">
+        <v>1</v>
+      </c>
+      <c r="M177" s="2">
+        <v>1</v>
+      </c>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="1:14" ht="21" thickBot="1">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>527</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="D178" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="2">
+        <v>28</v>
+      </c>
+      <c r="F178" s="2">
+        <v>20</v>
+      </c>
+      <c r="G178" t="s">
+        <v>526</v>
+      </c>
+      <c r="K178" s="2">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2">
+        <v>1</v>
+      </c>
+      <c r="M178" s="2">
+        <v>1</v>
+      </c>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="1:14" ht="21" thickBot="1">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>528</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="D179" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="2">
+        <v>20</v>
+      </c>
+      <c r="F179" s="2">
+        <v>20</v>
+      </c>
+      <c r="G179" t="s">
+        <v>529</v>
+      </c>
+      <c r="K179" s="2">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2">
+        <v>1</v>
+      </c>
+      <c r="M179" s="2">
+        <v>1</v>
+      </c>
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="1:14" ht="21" thickBot="1">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>531</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="2">
+        <v>120</v>
+      </c>
+      <c r="F180" s="2">
+        <v>5</v>
+      </c>
+      <c r="G180" t="s">
+        <v>530</v>
+      </c>
+      <c r="K180" s="2">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2">
+        <v>1</v>
+      </c>
+      <c r="M180" s="2">
+        <v>1</v>
+      </c>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">

--- a/Assets/Resources/Additional/Excel/ItemDatas.xlsx
+++ b/Assets/Resources/Additional/Excel/ItemDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\Resources\Additional\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A55316F-7813-4B3B-A688-7BE6FED22F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131AAEFC-3DA7-43B3-B0E9-FAD5C19DC503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2752,7 +2752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2775,9 +2775,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3149,15 +3146,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="8"/>
+    <col min="3" max="3" width="58.5" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3169,13 +3165,13 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -3210,7 +3206,7 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>377</v>
       </c>
       <c r="D2" t="s">
@@ -3220,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>151</v>
@@ -3243,7 +3239,7 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>378</v>
       </c>
       <c r="D3" t="s">
@@ -3253,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>152</v>
@@ -3276,7 +3272,7 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>379</v>
       </c>
       <c r="D4" t="s">
@@ -3286,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
         <v>114</v>
@@ -3309,7 +3305,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>380</v>
       </c>
       <c r="D5" t="s">
@@ -3319,7 +3315,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>115</v>
@@ -3342,7 +3338,7 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>381</v>
       </c>
       <c r="D6" t="s">
@@ -3352,7 +3348,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>116</v>
@@ -3375,7 +3371,7 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>382</v>
       </c>
       <c r="D7" t="s">
@@ -3408,7 +3404,7 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>383</v>
       </c>
       <c r="D8" t="s">
@@ -3441,7 +3437,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>384</v>
       </c>
       <c r="D9" t="s">
@@ -3474,7 +3470,7 @@
       <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>385</v>
       </c>
       <c r="D10" t="s">
@@ -3507,7 +3503,7 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D11" t="s">
@@ -3540,7 +3536,7 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D12" t="s">
@@ -3573,7 +3569,7 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D13" t="s">
@@ -3606,7 +3602,7 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D14" t="s">
@@ -3639,7 +3635,7 @@
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D15" t="s">
@@ -3672,7 +3668,7 @@
       <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D16" t="s">
@@ -3705,7 +3701,7 @@
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D17" t="s">
@@ -3738,7 +3734,7 @@
       <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D18" t="s">
@@ -3771,7 +3767,7 @@
       <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D19" t="s">
@@ -3804,7 +3800,7 @@
       <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D20" t="s">
@@ -3837,7 +3833,7 @@
       <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D21" t="s">
@@ -3870,7 +3866,7 @@
       <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D22" t="s">
@@ -3903,7 +3899,7 @@
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D23" t="s">
@@ -3936,7 +3932,7 @@
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D24" t="s">
@@ -3969,7 +3965,7 @@
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D25" t="s">
@@ -4002,7 +3998,7 @@
       <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>386</v>
       </c>
       <c r="D26" t="s">
@@ -4012,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
         <v>136</v>
@@ -4035,7 +4031,7 @@
       <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D27" t="s">
@@ -4045,7 +4041,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
         <v>137</v>
@@ -4068,7 +4064,7 @@
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>388</v>
       </c>
       <c r="D28" t="s">
@@ -4078,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
         <v>138</v>
@@ -4101,7 +4097,7 @@
       <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>390</v>
       </c>
       <c r="D29" t="s">
@@ -4111,7 +4107,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
         <v>139</v>
@@ -4134,7 +4130,7 @@
       <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>391</v>
       </c>
       <c r="D30" t="s">
@@ -4167,7 +4163,7 @@
       <c r="B31" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>392</v>
       </c>
       <c r="D31" t="s">
@@ -4200,7 +4196,7 @@
       <c r="B32" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>393</v>
       </c>
       <c r="D32" t="s">
@@ -4233,7 +4229,7 @@
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D33" t="s">
@@ -4266,7 +4262,7 @@
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>394</v>
       </c>
       <c r="D34" t="s">
@@ -4299,7 +4295,7 @@
       <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>395</v>
       </c>
       <c r="D35" t="s">
@@ -4332,7 +4328,7 @@
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>396</v>
       </c>
       <c r="D36" t="s">
@@ -4365,7 +4361,7 @@
       <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D37" t="s">
@@ -4398,7 +4394,7 @@
       <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D38" t="s">
@@ -4431,7 +4427,7 @@
       <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D39" t="s">
@@ -4464,7 +4460,7 @@
       <c r="B40" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D40" t="s">
@@ -4497,7 +4493,7 @@
       <c r="B41" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>397</v>
       </c>
       <c r="D41" t="s">
@@ -4507,7 +4503,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -4530,7 +4526,7 @@
       <c r="B42" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>399</v>
       </c>
       <c r="D42" t="s">
@@ -4540,7 +4536,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G42" t="s">
         <v>98</v>
@@ -4563,7 +4559,7 @@
       <c r="B43" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>398</v>
       </c>
       <c r="D43" t="s">
@@ -4573,7 +4569,7 @@
         <v>80</v>
       </c>
       <c r="F43" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
         <v>99</v>
@@ -4596,7 +4592,7 @@
       <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>400</v>
       </c>
       <c r="D44" t="s">
@@ -4629,7 +4625,7 @@
       <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>401</v>
       </c>
       <c r="D45" t="s">
@@ -4662,7 +4658,7 @@
       <c r="B46" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>402</v>
       </c>
       <c r="D46" t="s">
@@ -4695,7 +4691,7 @@
       <c r="B47" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>403</v>
       </c>
       <c r="D47" t="s">
@@ -4728,7 +4724,7 @@
       <c r="B48" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D48" t="s">
@@ -4761,7 +4757,7 @@
       <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D49" t="s">
@@ -4794,7 +4790,7 @@
       <c r="B50" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D50" t="s">
@@ -4827,7 +4823,7 @@
       <c r="B51" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D51" t="s">
@@ -4860,7 +4856,7 @@
       <c r="B52" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>389</v>
       </c>
       <c r="D52" t="s">
@@ -4893,7 +4889,7 @@
       <c r="B53" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D53" t="s">
@@ -4926,7 +4922,7 @@
       <c r="B54" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D54" t="s">
@@ -4959,7 +4955,7 @@
       <c r="B55" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D55" t="s">
@@ -4992,7 +4988,7 @@
       <c r="B56" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D56" t="s">
@@ -5025,7 +5021,7 @@
       <c r="B57" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D57" t="s">
@@ -5068,7 +5064,7 @@
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
         <v>157</v>
@@ -5101,7 +5097,7 @@
         <v>5</v>
       </c>
       <c r="F59" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G59" t="s">
         <v>156</v>
@@ -5124,7 +5120,7 @@
       <c r="B60" t="s">
         <v>404</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>405</v>
       </c>
       <c r="D60" t="s">
@@ -5157,7 +5153,7 @@
       <c r="B61" t="s">
         <v>406</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>414</v>
       </c>
       <c r="D61" t="s">
@@ -5190,7 +5186,7 @@
       <c r="B62" t="s">
         <v>407</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>415</v>
       </c>
       <c r="D62" t="s">
@@ -5223,7 +5219,7 @@
       <c r="B63" t="s">
         <v>408</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>416</v>
       </c>
       <c r="D63" t="s">
@@ -5256,7 +5252,7 @@
       <c r="B64" t="s">
         <v>409</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D64" t="s">
@@ -5289,7 +5285,7 @@
       <c r="B65" t="s">
         <v>410</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="8" t="s">
         <v>417</v>
       </c>
       <c r="D65" t="s">
@@ -5322,7 +5318,7 @@
       <c r="B66" t="s">
         <v>411</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D66" t="s">
@@ -5355,7 +5351,7 @@
       <c r="B67" t="s">
         <v>413</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>418</v>
       </c>
       <c r="D67" t="s">
@@ -5388,7 +5384,7 @@
       <c r="B68" t="s">
         <v>412</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>419</v>
       </c>
       <c r="D68" t="s">
@@ -5422,7 +5418,7 @@
       <c r="B69" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>432</v>
       </c>
       <c r="D69" t="s">
@@ -5432,7 +5428,7 @@
         <v>80</v>
       </c>
       <c r="F69" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G69" t="s">
         <v>178</v>
@@ -5456,7 +5452,7 @@
       <c r="B70" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>433</v>
       </c>
       <c r="D70" t="s">
@@ -5466,7 +5462,7 @@
         <v>15</v>
       </c>
       <c r="F70" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G70" t="s">
         <v>179</v>
@@ -5490,7 +5486,7 @@
       <c r="B71" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>434</v>
       </c>
       <c r="D71" t="s">
@@ -5500,7 +5496,7 @@
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G71" t="s">
         <v>180</v>
@@ -5524,7 +5520,7 @@
       <c r="B72" t="s">
         <v>177</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>435</v>
       </c>
       <c r="D72" t="s">
@@ -5534,7 +5530,7 @@
         <v>20</v>
       </c>
       <c r="F72" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G72" t="s">
         <v>181</v>
@@ -5558,7 +5554,7 @@
       <c r="B73" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>436</v>
       </c>
       <c r="D73" t="s">
@@ -5568,7 +5564,7 @@
         <v>7</v>
       </c>
       <c r="F73" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G73" t="s">
         <v>185</v>
@@ -5592,7 +5588,7 @@
       <c r="B74" t="s">
         <v>183</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D74" t="s">
@@ -5602,7 +5598,7 @@
         <v>10</v>
       </c>
       <c r="F74" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G74" t="s">
         <v>184</v>
@@ -5626,7 +5622,7 @@
       <c r="B75" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>438</v>
       </c>
       <c r="D75" t="s">
@@ -5636,7 +5632,7 @@
         <v>15</v>
       </c>
       <c r="F75" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G75" t="s">
         <v>209</v>
@@ -5660,7 +5656,7 @@
       <c r="B76" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>439</v>
       </c>
       <c r="D76" t="s">
@@ -5670,7 +5666,7 @@
         <v>10</v>
       </c>
       <c r="F76" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G76" t="s">
         <v>210</v>
@@ -5694,7 +5690,7 @@
       <c r="B77" t="s">
         <v>189</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>440</v>
       </c>
       <c r="D77" t="s">
@@ -5704,7 +5700,7 @@
         <v>20</v>
       </c>
       <c r="F77" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G77" t="s">
         <v>211</v>
@@ -5728,7 +5724,7 @@
       <c r="B78" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>441</v>
       </c>
       <c r="D78" t="s">
@@ -5738,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G78" t="s">
         <v>221</v>
@@ -5762,7 +5758,7 @@
       <c r="B79" t="s">
         <v>191</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>442</v>
       </c>
       <c r="D79" t="s">
@@ -5772,7 +5768,7 @@
         <v>15</v>
       </c>
       <c r="F79" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G79" t="s">
         <v>220</v>
@@ -5796,7 +5792,7 @@
       <c r="B80" t="s">
         <v>192</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>443</v>
       </c>
       <c r="D80" t="s">
@@ -5806,7 +5802,7 @@
         <v>7</v>
       </c>
       <c r="F80" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G80" t="s">
         <v>222</v>
@@ -5830,7 +5826,7 @@
       <c r="B81" t="s">
         <v>193</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>444</v>
       </c>
       <c r="D81" t="s">
@@ -5840,7 +5836,7 @@
         <v>20</v>
       </c>
       <c r="F81" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G81" t="s">
         <v>212</v>
@@ -5864,7 +5860,7 @@
       <c r="B82" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>445</v>
       </c>
       <c r="D82" t="s">
@@ -5874,7 +5870,7 @@
         <v>5</v>
       </c>
       <c r="F82" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G82" t="s">
         <v>223</v>
@@ -5898,7 +5894,7 @@
       <c r="B83" t="s">
         <v>195</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>446</v>
       </c>
       <c r="D83" t="s">
@@ -5908,7 +5904,7 @@
         <v>25</v>
       </c>
       <c r="F83" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G83" t="s">
         <v>213</v>
@@ -5932,7 +5928,7 @@
       <c r="B84" t="s">
         <v>196</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>447</v>
       </c>
       <c r="D84" t="s">
@@ -5942,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G84" t="s">
         <v>224</v>
@@ -5966,7 +5962,7 @@
       <c r="B85" t="s">
         <v>197</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>448</v>
       </c>
       <c r="D85" t="s">
@@ -5976,7 +5972,7 @@
         <v>15</v>
       </c>
       <c r="F85" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G85" t="s">
         <v>214</v>
@@ -6000,7 +5996,7 @@
       <c r="B86" t="s">
         <v>198</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>449</v>
       </c>
       <c r="D86" t="s">
@@ -6010,7 +6006,7 @@
         <v>25</v>
       </c>
       <c r="F86" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G86" t="s">
         <v>225</v>
@@ -6034,7 +6030,7 @@
       <c r="B87" t="s">
         <v>199</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>450</v>
       </c>
       <c r="D87" t="s">
@@ -6044,7 +6040,7 @@
         <v>20</v>
       </c>
       <c r="F87" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G87" t="s">
         <v>215</v>
@@ -6068,7 +6064,7 @@
       <c r="B88" t="s">
         <v>200</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>451</v>
       </c>
       <c r="D88" t="s">
@@ -6078,7 +6074,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G88" t="s">
         <v>226</v>
@@ -6102,7 +6098,7 @@
       <c r="B89" t="s">
         <v>201</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>452</v>
       </c>
       <c r="D89" t="s">
@@ -6112,7 +6108,7 @@
         <v>20</v>
       </c>
       <c r="F89" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G89" t="s">
         <v>216</v>
@@ -6136,7 +6132,7 @@
       <c r="B90" t="s">
         <v>202</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>453</v>
       </c>
       <c r="D90" t="s">
@@ -6146,7 +6142,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G90" t="s">
         <v>227</v>
@@ -6170,7 +6166,7 @@
       <c r="B91" t="s">
         <v>203</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>454</v>
       </c>
       <c r="D91" t="s">
@@ -6180,7 +6176,7 @@
         <v>45</v>
       </c>
       <c r="F91" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G91" t="s">
         <v>217</v>
@@ -6204,7 +6200,7 @@
       <c r="B92" t="s">
         <v>204</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>455</v>
       </c>
       <c r="D92" t="s">
@@ -6214,7 +6210,7 @@
         <v>10</v>
       </c>
       <c r="F92" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G92" t="s">
         <v>229</v>
@@ -6238,7 +6234,7 @@
       <c r="B93" t="s">
         <v>205</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>456</v>
       </c>
       <c r="D93" t="s">
@@ -6248,7 +6244,7 @@
         <v>10</v>
       </c>
       <c r="F93" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G93" t="s">
         <v>218</v>
@@ -6272,7 +6268,7 @@
       <c r="B94" t="s">
         <v>206</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D94" t="s">
@@ -6282,7 +6278,7 @@
         <v>5</v>
       </c>
       <c r="F94" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G94" t="s">
         <v>228</v>
@@ -6306,7 +6302,7 @@
       <c r="B95" t="s">
         <v>207</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="10" t="s">
         <v>458</v>
       </c>
       <c r="D95" t="s">
@@ -6316,7 +6312,7 @@
         <v>20</v>
       </c>
       <c r="F95" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G95" t="s">
         <v>219</v>
@@ -6340,7 +6336,7 @@
       <c r="B96" t="s">
         <v>208</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>459</v>
       </c>
       <c r="D96" t="s">
@@ -6350,7 +6346,7 @@
         <v>5</v>
       </c>
       <c r="F96" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G96" t="s">
         <v>230</v>
@@ -6374,7 +6370,7 @@
       <c r="B97" t="s">
         <v>231</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>460</v>
       </c>
       <c r="D97" t="s">
@@ -6384,7 +6380,7 @@
         <v>40</v>
       </c>
       <c r="F97" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G97" t="s">
         <v>261</v>
@@ -6408,7 +6404,7 @@
       <c r="B98" t="s">
         <v>232</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="10" t="s">
         <v>461</v>
       </c>
       <c r="D98" t="s">
@@ -6418,7 +6414,7 @@
         <v>10</v>
       </c>
       <c r="F98" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G98" t="s">
         <v>276</v>
@@ -6442,7 +6438,7 @@
       <c r="B99" t="s">
         <v>233</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>462</v>
       </c>
       <c r="D99" t="s">
@@ -6452,7 +6448,7 @@
         <v>20</v>
       </c>
       <c r="F99" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G99" t="s">
         <v>262</v>
@@ -6476,7 +6472,7 @@
       <c r="B100" t="s">
         <v>234</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>463</v>
       </c>
       <c r="D100" t="s">
@@ -6486,7 +6482,7 @@
         <v>5</v>
       </c>
       <c r="F100" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G100" t="s">
         <v>277</v>
@@ -6510,7 +6506,7 @@
       <c r="B101" t="s">
         <v>235</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="10" t="s">
         <v>464</v>
       </c>
       <c r="D101" t="s">
@@ -6520,7 +6516,7 @@
         <v>40</v>
       </c>
       <c r="F101" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G101" t="s">
         <v>263</v>
@@ -6544,7 +6540,7 @@
       <c r="B102" t="s">
         <v>236</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="10" t="s">
         <v>465</v>
       </c>
       <c r="D102" t="s">
@@ -6554,7 +6550,7 @@
         <v>10</v>
       </c>
       <c r="F102" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G102" t="s">
         <v>278</v>
@@ -6578,7 +6574,7 @@
       <c r="B103" t="s">
         <v>237</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="10" t="s">
         <v>466</v>
       </c>
       <c r="D103" t="s">
@@ -6588,7 +6584,7 @@
         <v>60</v>
       </c>
       <c r="F103" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G103" t="s">
         <v>264</v>
@@ -6612,7 +6608,7 @@
       <c r="B104" t="s">
         <v>238</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="10" t="s">
         <v>467</v>
       </c>
       <c r="D104" t="s">
@@ -6622,7 +6618,7 @@
         <v>15</v>
       </c>
       <c r="F104" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G104" t="s">
         <v>279</v>
@@ -6646,7 +6642,7 @@
       <c r="B105" t="s">
         <v>239</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="10" t="s">
         <v>468</v>
       </c>
       <c r="D105" t="s">
@@ -6656,7 +6652,7 @@
         <v>30</v>
       </c>
       <c r="F105" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G105" t="s">
         <v>265</v>
@@ -6680,7 +6676,7 @@
       <c r="B106" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="10" t="s">
         <v>469</v>
       </c>
       <c r="D106" t="s">
@@ -6690,7 +6686,7 @@
         <v>7</v>
       </c>
       <c r="F106" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G106" t="s">
         <v>280</v>
@@ -6714,7 +6710,7 @@
       <c r="B107" t="s">
         <v>241</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="10" t="s">
         <v>470</v>
       </c>
       <c r="D107" t="s">
@@ -6724,7 +6720,7 @@
         <v>30</v>
       </c>
       <c r="F107" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G107" t="s">
         <v>266</v>
@@ -6748,7 +6744,7 @@
       <c r="B108" t="s">
         <v>242</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="10" t="s">
         <v>471</v>
       </c>
       <c r="D108" t="s">
@@ -6758,7 +6754,7 @@
         <v>7</v>
       </c>
       <c r="F108" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G108" t="s">
         <v>281</v>
@@ -6782,7 +6778,7 @@
       <c r="B109" t="s">
         <v>243</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="10" t="s">
         <v>472</v>
       </c>
       <c r="D109" t="s">
@@ -6792,7 +6788,7 @@
         <v>30</v>
       </c>
       <c r="F109" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G109" t="s">
         <v>267</v>
@@ -6816,7 +6812,7 @@
       <c r="B110" t="s">
         <v>244</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="10" t="s">
         <v>473</v>
       </c>
       <c r="D110" t="s">
@@ -6826,7 +6822,7 @@
         <v>7</v>
       </c>
       <c r="F110" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G110" t="s">
         <v>282</v>
@@ -6850,7 +6846,7 @@
       <c r="B111" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="10" t="s">
         <v>474</v>
       </c>
       <c r="D111" t="s">
@@ -6860,7 +6856,7 @@
         <v>100</v>
       </c>
       <c r="F111" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G111" t="s">
         <v>268</v>
@@ -6884,7 +6880,7 @@
       <c r="B112" t="s">
         <v>246</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="10" t="s">
         <v>475</v>
       </c>
       <c r="D112" t="s">
@@ -6894,7 +6890,7 @@
         <v>20</v>
       </c>
       <c r="F112" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G112" t="s">
         <v>283</v>
@@ -6918,7 +6914,7 @@
       <c r="B113" t="s">
         <v>247</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="10" t="s">
         <v>476</v>
       </c>
       <c r="D113" t="s">
@@ -6928,7 +6924,7 @@
         <v>100</v>
       </c>
       <c r="F113" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G113" t="s">
         <v>269</v>
@@ -6952,7 +6948,7 @@
       <c r="B114" t="s">
         <v>248</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="10" t="s">
         <v>477</v>
       </c>
       <c r="D114" t="s">
@@ -6962,7 +6958,7 @@
         <v>20</v>
       </c>
       <c r="F114" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G114" t="s">
         <v>284</v>
@@ -6986,7 +6982,7 @@
       <c r="B115" t="s">
         <v>249</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="10" t="s">
         <v>478</v>
       </c>
       <c r="D115" t="s">
@@ -6996,7 +6992,7 @@
         <v>25</v>
       </c>
       <c r="F115" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G115" t="s">
         <v>270</v>
@@ -7020,7 +7016,7 @@
       <c r="B116" t="s">
         <v>250</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="10" t="s">
         <v>479</v>
       </c>
       <c r="D116" t="s">
@@ -7030,7 +7026,7 @@
         <v>5</v>
       </c>
       <c r="F116" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G116" t="s">
         <v>285</v>
@@ -7054,7 +7050,7 @@
       <c r="B117" t="s">
         <v>251</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="10" t="s">
         <v>480</v>
       </c>
       <c r="D117" t="s">
@@ -7064,7 +7060,7 @@
         <v>30</v>
       </c>
       <c r="F117" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G117" t="s">
         <v>271</v>
@@ -7088,7 +7084,7 @@
       <c r="B118" t="s">
         <v>252</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="10" t="s">
         <v>481</v>
       </c>
       <c r="D118" t="s">
@@ -7098,7 +7094,7 @@
         <v>7</v>
       </c>
       <c r="F118" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G118" t="s">
         <v>286</v>
@@ -7122,7 +7118,7 @@
       <c r="B119" t="s">
         <v>253</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="10" t="s">
         <v>482</v>
       </c>
       <c r="D119" t="s">
@@ -7132,7 +7128,7 @@
         <v>120</v>
       </c>
       <c r="F119" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G119" t="s">
         <v>272</v>
@@ -7156,7 +7152,7 @@
       <c r="B120" t="s">
         <v>254</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="10" t="s">
         <v>483</v>
       </c>
       <c r="D120" t="s">
@@ -7166,7 +7162,7 @@
         <v>25</v>
       </c>
       <c r="F120" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G120" t="s">
         <v>287</v>
@@ -7190,7 +7186,7 @@
       <c r="B121" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="10" t="s">
         <v>484</v>
       </c>
       <c r="D121" t="s">
@@ -7200,7 +7196,7 @@
         <v>15</v>
       </c>
       <c r="F121" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G121" t="s">
         <v>273</v>
@@ -7224,7 +7220,7 @@
       <c r="B122" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="10" t="s">
         <v>485</v>
       </c>
       <c r="D122" t="s">
@@ -7234,7 +7230,7 @@
         <v>20</v>
       </c>
       <c r="F122" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G122" t="s">
         <v>288</v>
@@ -7258,7 +7254,7 @@
       <c r="B123" t="s">
         <v>257</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D123" t="s">
@@ -7268,7 +7264,7 @@
         <v>50</v>
       </c>
       <c r="F123" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G123" t="s">
         <v>274</v>
@@ -7292,7 +7288,7 @@
       <c r="B124" t="s">
         <v>258</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D124" t="s">
@@ -7302,7 +7298,7 @@
         <v>12</v>
       </c>
       <c r="F124" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G124" t="s">
         <v>289</v>
@@ -7326,7 +7322,7 @@
       <c r="B125" t="s">
         <v>259</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="10" t="s">
         <v>488</v>
       </c>
       <c r="D125" t="s">
@@ -7336,7 +7332,7 @@
         <v>10</v>
       </c>
       <c r="F125" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G125" t="s">
         <v>275</v>
@@ -7360,7 +7356,7 @@
       <c r="B126" t="s">
         <v>260</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="10" t="s">
         <v>489</v>
       </c>
       <c r="D126" t="s">
@@ -7370,7 +7366,7 @@
         <v>5</v>
       </c>
       <c r="F126" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G126" t="s">
         <v>290</v>
@@ -7404,7 +7400,7 @@
         <v>15</v>
       </c>
       <c r="F127" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G127" t="s">
         <v>296</v>
@@ -7427,7 +7423,7 @@
       <c r="B128" t="s">
         <v>292</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="8" t="s">
         <v>420</v>
       </c>
       <c r="D128" t="s">
@@ -7437,7 +7433,7 @@
         <v>8</v>
       </c>
       <c r="F128" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G128" t="s">
         <v>295</v>
@@ -7470,7 +7466,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G129" t="s">
         <v>313</v>
@@ -7493,7 +7489,7 @@
       <c r="B130" t="s">
         <v>312</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="8" t="s">
         <v>421</v>
       </c>
       <c r="D130" t="s">
@@ -7503,7 +7499,7 @@
         <v>10</v>
       </c>
       <c r="F130" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G130" t="s">
         <v>314</v>
@@ -7536,7 +7532,7 @@
         <v>25</v>
       </c>
       <c r="F131" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G131" t="s">
         <v>306</v>
@@ -7559,7 +7555,7 @@
       <c r="B132" t="s">
         <v>300</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="8" t="s">
         <v>422</v>
       </c>
       <c r="D132" t="s">
@@ -7569,7 +7565,7 @@
         <v>12</v>
       </c>
       <c r="F132" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G132" t="s">
         <v>305</v>
@@ -7592,7 +7588,7 @@
       <c r="B133" t="s">
         <v>301</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="10" t="s">
         <v>429</v>
       </c>
       <c r="D133" t="s">
@@ -7602,7 +7598,7 @@
         <v>30</v>
       </c>
       <c r="F133" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G133" t="s">
         <v>308</v>
@@ -7625,7 +7621,7 @@
       <c r="B134" t="s">
         <v>302</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="8" t="s">
         <v>423</v>
       </c>
       <c r="D134" t="s">
@@ -7635,7 +7631,7 @@
         <v>15</v>
       </c>
       <c r="F134" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G134" t="s">
         <v>307</v>
@@ -7668,7 +7664,7 @@
         <v>10</v>
       </c>
       <c r="F135" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G135" t="s">
         <v>310</v>
@@ -7691,7 +7687,7 @@
       <c r="B136" t="s">
         <v>304</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="8" t="s">
         <v>424</v>
       </c>
       <c r="D136" t="s">
@@ -7701,7 +7697,7 @@
         <v>8</v>
       </c>
       <c r="F136" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G136" t="s">
         <v>309</v>
@@ -7734,7 +7730,7 @@
         <v>20</v>
       </c>
       <c r="F137" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G137" t="s">
         <v>298</v>
@@ -7757,7 +7753,7 @@
       <c r="B138" t="s">
         <v>294</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="8" t="s">
         <v>425</v>
       </c>
       <c r="D138" t="s">
@@ -7767,7 +7763,7 @@
         <v>10</v>
       </c>
       <c r="F138" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G138" t="s">
         <v>297</v>
@@ -7790,7 +7786,7 @@
       <c r="B139" t="s">
         <v>315</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="8" t="s">
         <v>397</v>
       </c>
       <c r="D139" t="s">
@@ -7800,7 +7796,7 @@
         <v>15</v>
       </c>
       <c r="F139" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G139" t="s">
         <v>331</v>
@@ -7823,7 +7819,7 @@
       <c r="B140" t="s">
         <v>316</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="8" t="s">
         <v>492</v>
       </c>
       <c r="D140" t="s">
@@ -7833,7 +7829,7 @@
         <v>30</v>
       </c>
       <c r="F140" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G140" t="s">
         <v>332</v>
@@ -7856,7 +7852,7 @@
       <c r="B141" t="s">
         <v>317</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="8" t="s">
         <v>493</v>
       </c>
       <c r="D141" t="s">
@@ -7866,7 +7862,7 @@
         <v>120</v>
       </c>
       <c r="F141" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G141" t="s">
         <v>333</v>
@@ -7889,7 +7885,7 @@
       <c r="B142" t="s">
         <v>318</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="8" t="s">
         <v>494</v>
       </c>
       <c r="D142" t="s">
@@ -7922,7 +7918,7 @@
       <c r="B143" t="s">
         <v>319</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C143" s="8" t="s">
         <v>495</v>
       </c>
       <c r="D143" t="s">
@@ -7955,7 +7951,7 @@
       <c r="B144" t="s">
         <v>320</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="8" t="s">
         <v>496</v>
       </c>
       <c r="D144" t="s">
@@ -7988,7 +7984,7 @@
       <c r="B145" t="s">
         <v>321</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="8" t="s">
         <v>497</v>
       </c>
       <c r="D145" t="s">
@@ -8021,7 +8017,7 @@
       <c r="B146" t="s">
         <v>322</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D146" t="s">
@@ -8054,7 +8050,7 @@
       <c r="B147" t="s">
         <v>323</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C147" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D147" t="s">
@@ -8087,7 +8083,7 @@
       <c r="B148" t="s">
         <v>324</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D148" t="s">
@@ -8120,7 +8116,7 @@
       <c r="B149" t="s">
         <v>325</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D149" t="s">
@@ -8153,7 +8149,7 @@
       <c r="B150" t="s">
         <v>326</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D150" t="s">
@@ -8186,7 +8182,7 @@
       <c r="B151" t="s">
         <v>327</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D151" t="s">
@@ -8219,7 +8215,7 @@
       <c r="B152" t="s">
         <v>328</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D152" t="s">
@@ -8252,7 +8248,7 @@
       <c r="B153" t="s">
         <v>329</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D153" t="s">
@@ -8285,7 +8281,7 @@
       <c r="B154" t="s">
         <v>330</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D154" t="s">
@@ -8318,7 +8314,7 @@
       <c r="B155" t="s">
         <v>349</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="8" t="s">
         <v>498</v>
       </c>
       <c r="D155" t="s">
@@ -8328,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G155" t="s">
         <v>360</v>
@@ -8351,7 +8347,7 @@
       <c r="B156" t="s">
         <v>350</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="8" t="s">
         <v>350</v>
       </c>
       <c r="D156" t="s">
@@ -8361,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G156" t="s">
         <v>361</v>
@@ -8384,7 +8380,7 @@
       <c r="B157" t="s">
         <v>351</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="8" t="s">
         <v>351</v>
       </c>
       <c r="D157" t="s">
@@ -8394,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G157" t="s">
         <v>362</v>
@@ -8417,7 +8413,7 @@
       <c r="B158" t="s">
         <v>352</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="8" t="s">
         <v>352</v>
       </c>
       <c r="D158" t="s">
@@ -8427,7 +8423,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G158" t="s">
         <v>363</v>
@@ -8450,7 +8446,7 @@
       <c r="B159" t="s">
         <v>353</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="8" t="s">
         <v>353</v>
       </c>
       <c r="D159" t="s">
@@ -8460,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G159" t="s">
         <v>364</v>
@@ -8483,7 +8479,7 @@
       <c r="B160" t="s">
         <v>354</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="8" t="s">
         <v>354</v>
       </c>
       <c r="D160" t="s">
@@ -8493,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G160" t="s">
         <v>365</v>
@@ -8526,7 +8522,7 @@
         <v>5</v>
       </c>
       <c r="F161" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G161" t="s">
         <v>366</v>
@@ -8559,7 +8555,7 @@
         <v>25</v>
       </c>
       <c r="F162" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G162" t="s">
         <v>367</v>
@@ -8591,7 +8587,7 @@
         <v>8</v>
       </c>
       <c r="F163" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G163" t="s">
         <v>368</v>
@@ -8624,7 +8620,7 @@
         <v>12</v>
       </c>
       <c r="F164" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G164" t="s">
         <v>369</v>
@@ -8657,7 +8653,7 @@
         <v>40</v>
       </c>
       <c r="F165" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G165" t="s">
         <v>370</v>
@@ -8680,7 +8676,7 @@
       <c r="B166" t="s">
         <v>371</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C166" s="8" t="s">
         <v>504</v>
       </c>
       <c r="D166" t="s">
@@ -8713,7 +8709,7 @@
       <c r="B167" t="s">
         <v>374</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="8" t="s">
         <v>505</v>
       </c>
       <c r="D167" t="s">
@@ -8746,7 +8742,7 @@
       <c r="B168" t="s">
         <v>506</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="10" t="s">
         <v>532</v>
       </c>
       <c r="D168" t="s">
@@ -8756,7 +8752,7 @@
         <v>12</v>
       </c>
       <c r="F168" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G168" t="s">
         <v>507</v>
@@ -8780,7 +8776,7 @@
       <c r="B169" t="s">
         <v>508</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="10" t="s">
         <v>533</v>
       </c>
       <c r="D169" t="s">
@@ -8790,7 +8786,7 @@
         <v>18</v>
       </c>
       <c r="F169" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G169" t="s">
         <v>509</v>
@@ -8814,7 +8810,7 @@
       <c r="B170" t="s">
         <v>510</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="10" t="s">
         <v>534</v>
       </c>
       <c r="D170" t="s">
@@ -8824,7 +8820,7 @@
         <v>65</v>
       </c>
       <c r="F170" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G170" t="s">
         <v>511</v>
@@ -8848,7 +8844,7 @@
       <c r="B171" t="s">
         <v>513</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="10" t="s">
         <v>535</v>
       </c>
       <c r="D171" t="s">
@@ -8858,7 +8854,7 @@
         <v>55</v>
       </c>
       <c r="F171" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G171" t="s">
         <v>512</v>
@@ -8882,7 +8878,7 @@
       <c r="B172" t="s">
         <v>515</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="10" t="s">
         <v>536</v>
       </c>
       <c r="D172" t="s">
@@ -8892,7 +8888,7 @@
         <v>38</v>
       </c>
       <c r="F172" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G172" t="s">
         <v>514</v>
@@ -8916,7 +8912,7 @@
       <c r="B173" t="s">
         <v>517</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="10" t="s">
         <v>537</v>
       </c>
       <c r="D173" t="s">
@@ -8926,7 +8922,7 @@
         <v>90</v>
       </c>
       <c r="F173" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G173" t="s">
         <v>516</v>
@@ -8950,7 +8946,7 @@
       <c r="B174" t="s">
         <v>519</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="10" t="s">
         <v>538</v>
       </c>
       <c r="D174" t="s">
@@ -8960,7 +8956,7 @@
         <v>45</v>
       </c>
       <c r="F174" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G174" t="s">
         <v>518</v>
@@ -8984,7 +8980,7 @@
       <c r="B175" t="s">
         <v>520</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="10" t="s">
         <v>539</v>
       </c>
       <c r="D175" t="s">
@@ -8994,7 +8990,7 @@
         <v>25</v>
       </c>
       <c r="F175" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G175" t="s">
         <v>521</v>
@@ -9017,7 +9013,7 @@
       <c r="B176" t="s">
         <v>522</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" s="10" t="s">
         <v>540</v>
       </c>
       <c r="D176" t="s">
@@ -9027,7 +9023,7 @@
         <v>32</v>
       </c>
       <c r="F176" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G176" t="s">
         <v>523</v>
@@ -9050,7 +9046,7 @@
       <c r="B177" t="s">
         <v>525</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" s="10" t="s">
         <v>541</v>
       </c>
       <c r="D177" t="s">
@@ -9060,7 +9056,7 @@
         <v>7</v>
       </c>
       <c r="F177" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G177" t="s">
         <v>524</v>
@@ -9083,7 +9079,7 @@
       <c r="B178" t="s">
         <v>527</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C178" s="11" t="s">
         <v>544</v>
       </c>
       <c r="D178" t="s">
@@ -9093,7 +9089,7 @@
         <v>28</v>
       </c>
       <c r="F178" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G178" t="s">
         <v>526</v>
@@ -9116,7 +9112,7 @@
       <c r="B179" t="s">
         <v>528</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" s="10" t="s">
         <v>542</v>
       </c>
       <c r="D179" t="s">
@@ -9126,7 +9122,7 @@
         <v>20</v>
       </c>
       <c r="F179" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G179" t="s">
         <v>529</v>
@@ -9149,7 +9145,7 @@
       <c r="B180" t="s">
         <v>531</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D180" t="s">

--- a/Assets/Resources/Additional/Excel/ItemDatas.xlsx
+++ b/Assets/Resources/Additional/Excel/ItemDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\Resources\Additional\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131AAEFC-3DA7-43B3-B0E9-FAD5C19DC503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8513258-DE47-41B9-8670-3DD9FEB95137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="554">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -2073,6 +2073,39 @@
       <t>민물고기</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 아무런 것도 할 수 없지만 귀여운 닭을 소환한다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 아무런 것도 할 수 없지만 귀여운 소을 소환한다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 아무런 것도 할 수 없지만 귀여운 오리을 소환한다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChickenSpawner</t>
+  </si>
+  <si>
+    <t>CowSpawner</t>
+  </si>
+  <si>
+    <t>DuckSpawner</t>
   </si>
 </sst>
 </file>
@@ -2752,7 +2785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2787,6 +2820,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3144,10 +3180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P181"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -9171,10 +9207,101 @@
       </c>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="1:14">
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3"/>
+    <row r="181" spans="1:14" ht="18" thickBot="1">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>545</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="D181" t="s">
+        <v>375</v>
+      </c>
+      <c r="E181" s="12">
+        <v>15</v>
+      </c>
+      <c r="F181" s="12">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
+        <v>551</v>
+      </c>
+      <c r="K181" s="3">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2">
+        <v>1</v>
+      </c>
+      <c r="M181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="18" thickBot="1">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>546</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="D182" t="s">
+        <v>375</v>
+      </c>
+      <c r="E182" s="12">
+        <v>15</v>
+      </c>
+      <c r="F182" s="12">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
+        <v>552</v>
+      </c>
+      <c r="K182" s="12">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2">
+        <v>1</v>
+      </c>
+      <c r="M182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="18" thickBot="1">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>547</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="D183" t="s">
+        <v>375</v>
+      </c>
+      <c r="E183" s="12">
+        <v>15</v>
+      </c>
+      <c r="F183" s="12">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
+        <v>553</v>
+      </c>
+      <c r="K183" s="12">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2">
+        <v>1</v>
+      </c>
+      <c r="M183" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
